--- a/examples/model_report/决策树组合策略挖掘.xlsx
+++ b/examples/model_report/决策树组合策略挖掘.xlsx
@@ -1135,137 +1135,137 @@
     <row r="30">
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1552</v>
+        <v>2553</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0.2217</v>
+        <v>0.3647</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>832</v>
+        <v>1345</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>0.2314</v>
+        <v>0.374</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>720</v>
+        <v>1208</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>0.2115</v>
+        <v>0.3549</v>
       </c>
       <c r="I30" s="7" t="n">
-        <v>0.4639</v>
+        <v>0.4732</v>
       </c>
       <c r="J30" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>0.954</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3026</v>
+        <v>2531</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0.4323</v>
+        <v>0.3616</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1543</v>
+        <v>1290</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>0.4291</v>
+        <v>0.3587</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1483</v>
+        <v>1241</v>
       </c>
       <c r="H31" s="7" t="n">
-        <v>0.4357</v>
+        <v>0.3646</v>
       </c>
       <c r="I31" s="7" t="n">
-        <v>0.4901</v>
+        <v>0.4903</v>
       </c>
       <c r="J31" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>1.0078</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1967</v>
+        <v>966</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>0.281</v>
+        <v>0.138</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1002</v>
+        <v>489</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>0.2786</v>
+        <v>0.136</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>965</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7" t="n">
-        <v>0.2835</v>
+        <v>0.1401</v>
       </c>
       <c r="I32" s="7" t="n">
-        <v>0.4906</v>
+        <v>0.4938</v>
       </c>
       <c r="J32" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>1.0089</v>
+        <v>1.0154</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C33" s="10" t="n">
-        <v>455</v>
+        <v>950</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>0.065</v>
+        <v>0.1357</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="F33" s="11" t="n">
-        <v>0.0609</v>
+        <v>0.1313</v>
       </c>
       <c r="G33" s="10" t="n">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="H33" s="11" t="n">
-        <v>0.0693</v>
+        <v>0.1404</v>
       </c>
       <c r="I33" s="11" t="n">
-        <v>0.5187</v>
+        <v>0.5032</v>
       </c>
       <c r="J33" s="11" t="n">
         <v>0.4863</v>
       </c>
       <c r="K33" s="12" t="n">
-        <v>1.0666</v>
+        <v>1.0347</v>
       </c>
     </row>
     <row r="54">
@@ -1357,103 +1357,103 @@
     <row r="56">
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>2770</v>
+        <v>1234</v>
       </c>
       <c r="D56" s="7" t="n">
-        <v>0.3957</v>
+        <v>0.1763</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>1431</v>
+        <v>638</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>0.3979</v>
+        <v>0.1774</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>1339</v>
+        <v>596</v>
       </c>
       <c r="H56" s="7" t="n">
-        <v>0.3934</v>
+        <v>0.1751</v>
       </c>
       <c r="I56" s="7" t="n">
-        <v>0.4834</v>
+        <v>0.483</v>
       </c>
       <c r="J56" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>0.9941</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1404</v>
+        <v>2770</v>
       </c>
       <c r="D57" s="7" t="n">
-        <v>0.2006</v>
+        <v>0.3957</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>718</v>
+        <v>1431</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>0.1997</v>
+        <v>0.3979</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>686</v>
+        <v>1339</v>
       </c>
       <c r="H57" s="7" t="n">
-        <v>0.2015</v>
+        <v>0.3934</v>
       </c>
       <c r="I57" s="7" t="n">
-        <v>0.4886</v>
+        <v>0.4834</v>
       </c>
       <c r="J57" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>1.0048</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C58" s="10" t="n">
-        <v>1375</v>
+        <v>1545</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>0.1964</v>
+        <v>0.2207</v>
       </c>
       <c r="E58" s="10" t="n">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="F58" s="11" t="n">
-        <v>0.1885</v>
+        <v>0.2108</v>
       </c>
       <c r="G58" s="10" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="H58" s="11" t="n">
-        <v>0.2048</v>
+        <v>0.2312</v>
       </c>
       <c r="I58" s="11" t="n">
-        <v>0.5069</v>
+        <v>0.5094</v>
       </c>
       <c r="J58" s="11" t="n">
         <v>0.4863</v>
       </c>
       <c r="K58" s="12" t="n">
-        <v>1.0424</v>
+        <v>1.0475</v>
       </c>
     </row>
     <row r="79">
@@ -1654,137 +1654,137 @@
     <row r="87">
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C87" s="6" t="n">
-        <v>1552</v>
+        <v>2553</v>
       </c>
       <c r="D87" s="7" t="n">
-        <v>0.2217</v>
+        <v>0.3647</v>
       </c>
       <c r="E87" s="6" t="n">
-        <v>832</v>
+        <v>1345</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>0.2314</v>
+        <v>0.374</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>720</v>
+        <v>1208</v>
       </c>
       <c r="H87" s="7" t="n">
-        <v>0.2115</v>
+        <v>0.3549</v>
       </c>
       <c r="I87" s="7" t="n">
-        <v>0.4639</v>
+        <v>0.4732</v>
       </c>
       <c r="J87" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>0.954</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C88" s="6" t="n">
-        <v>3026</v>
+        <v>2531</v>
       </c>
       <c r="D88" s="7" t="n">
-        <v>0.4323</v>
+        <v>0.3616</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>1543</v>
+        <v>1290</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>0.4291</v>
+        <v>0.3587</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>1483</v>
+        <v>1241</v>
       </c>
       <c r="H88" s="7" t="n">
-        <v>0.4357</v>
+        <v>0.3646</v>
       </c>
       <c r="I88" s="7" t="n">
-        <v>0.4901</v>
+        <v>0.4903</v>
       </c>
       <c r="J88" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>1.0078</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C89" s="6" t="n">
-        <v>1967</v>
+        <v>966</v>
       </c>
       <c r="D89" s="7" t="n">
-        <v>0.281</v>
+        <v>0.138</v>
       </c>
       <c r="E89" s="6" t="n">
-        <v>1002</v>
+        <v>489</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>0.2786</v>
+        <v>0.136</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>965</v>
+        <v>477</v>
       </c>
       <c r="H89" s="7" t="n">
-        <v>0.2835</v>
+        <v>0.1401</v>
       </c>
       <c r="I89" s="7" t="n">
-        <v>0.4906</v>
+        <v>0.4938</v>
       </c>
       <c r="J89" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>1.0089</v>
+        <v>1.0154</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C90" s="6" t="n">
-        <v>455</v>
+        <v>950</v>
       </c>
       <c r="D90" s="7" t="n">
-        <v>0.065</v>
+        <v>0.1357</v>
       </c>
       <c r="E90" s="6" t="n">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>0.0609</v>
+        <v>0.1313</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="H90" s="7" t="n">
-        <v>0.0693</v>
+        <v>0.1404</v>
       </c>
       <c r="I90" s="7" t="n">
-        <v>0.5187</v>
+        <v>0.5032</v>
       </c>
       <c r="J90" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>1.0666</v>
+        <v>1.0347</v>
       </c>
     </row>
     <row r="91">
@@ -1824,103 +1824,103 @@
     <row r="92">
       <c r="B92" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C92" s="6" t="n">
-        <v>2770</v>
+        <v>1234</v>
       </c>
       <c r="D92" s="7" t="n">
-        <v>0.3957</v>
+        <v>0.1763</v>
       </c>
       <c r="E92" s="6" t="n">
-        <v>1431</v>
+        <v>638</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>0.3979</v>
+        <v>0.1774</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>1339</v>
+        <v>596</v>
       </c>
       <c r="H92" s="7" t="n">
-        <v>0.3934</v>
+        <v>0.1751</v>
       </c>
       <c r="I92" s="7" t="n">
-        <v>0.4834</v>
+        <v>0.483</v>
       </c>
       <c r="J92" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.9941</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C93" s="6" t="n">
-        <v>1404</v>
+        <v>2770</v>
       </c>
       <c r="D93" s="7" t="n">
-        <v>0.2006</v>
+        <v>0.3957</v>
       </c>
       <c r="E93" s="6" t="n">
-        <v>718</v>
+        <v>1431</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>0.1997</v>
+        <v>0.3979</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>686</v>
+        <v>1339</v>
       </c>
       <c r="H93" s="7" t="n">
-        <v>0.2015</v>
+        <v>0.3934</v>
       </c>
       <c r="I93" s="7" t="n">
-        <v>0.4886</v>
+        <v>0.4834</v>
       </c>
       <c r="J93" s="7" t="n">
         <v>0.4863</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>1.0048</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C94" s="10" t="n">
-        <v>1375</v>
+        <v>1545</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>0.1964</v>
+        <v>0.2207</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="F94" s="11" t="n">
-        <v>0.1885</v>
+        <v>0.2108</v>
       </c>
       <c r="G94" s="10" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="H94" s="11" t="n">
-        <v>0.2048</v>
+        <v>0.2312</v>
       </c>
       <c r="I94" s="11" t="n">
-        <v>0.5069</v>
+        <v>0.5094</v>
       </c>
       <c r="J94" s="11" t="n">
         <v>0.4863</v>
       </c>
       <c r="K94" s="12" t="n">
-        <v>1.0424</v>
+        <v>1.0475</v>
       </c>
     </row>
     <row r="97">
@@ -2121,137 +2121,137 @@
     <row r="105">
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C105" s="6" t="n">
-        <v>666</v>
+        <v>1068</v>
       </c>
       <c r="D105" s="7" t="n">
-        <v>0.222</v>
+        <v>0.356</v>
       </c>
       <c r="E105" s="6" t="n">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>0.213</v>
+        <v>0.3513</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="H105" s="7" t="n">
-        <v>0.2315</v>
+        <v>0.361</v>
       </c>
       <c r="I105" s="7" t="n">
-        <v>0.5075</v>
+        <v>0.4934</v>
       </c>
       <c r="J105" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>1.0428</v>
+        <v>1.0139</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C106" s="6" t="n">
-        <v>1282</v>
+        <v>1063</v>
       </c>
       <c r="D106" s="7" t="n">
-        <v>0.4273</v>
+        <v>0.3543</v>
       </c>
       <c r="E106" s="6" t="n">
-        <v>667</v>
+        <v>549</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>0.4331</v>
+        <v>0.3565</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>615</v>
+        <v>514</v>
       </c>
       <c r="H106" s="7" t="n">
-        <v>0.4212</v>
+        <v>0.3521</v>
       </c>
       <c r="I106" s="7" t="n">
-        <v>0.4797</v>
+        <v>0.4835</v>
       </c>
       <c r="J106" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>0.9857</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C107" s="6" t="n">
-        <v>847</v>
+        <v>445</v>
       </c>
       <c r="D107" s="7" t="n">
-        <v>0.2823</v>
+        <v>0.1483</v>
       </c>
       <c r="E107" s="6" t="n">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="F107" s="7" t="n">
-        <v>0.2864</v>
+        <v>0.1481</v>
       </c>
       <c r="G107" s="6" t="n">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="H107" s="7" t="n">
-        <v>0.2781</v>
+        <v>0.1486</v>
       </c>
       <c r="I107" s="7" t="n">
-        <v>0.4793</v>
+        <v>0.4876</v>
       </c>
       <c r="J107" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>0.9849</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="5" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C108" s="6" t="n">
-        <v>205</v>
+        <v>424</v>
       </c>
       <c r="D108" s="7" t="n">
-        <v>0.0683</v>
+        <v>0.1413</v>
       </c>
       <c r="E108" s="6" t="n">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="F108" s="7" t="n">
-        <v>0.0675</v>
+        <v>0.1442</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="H108" s="7" t="n">
-        <v>0.0692</v>
+        <v>0.1384</v>
       </c>
       <c r="I108" s="7" t="n">
-        <v>0.4927</v>
+        <v>0.4764</v>
       </c>
       <c r="J108" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>1.0124</v>
+        <v>0.9789</v>
       </c>
     </row>
     <row r="109">
@@ -2291,103 +2291,103 @@
     <row r="110">
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C110" s="6" t="n">
-        <v>1162</v>
+        <v>509</v>
       </c>
       <c r="D110" s="7" t="n">
-        <v>0.3873</v>
+        <v>0.1697</v>
       </c>
       <c r="E110" s="6" t="n">
-        <v>591</v>
+        <v>248</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>0.3838</v>
+        <v>0.161</v>
       </c>
       <c r="G110" s="6" t="n">
-        <v>571</v>
+        <v>261</v>
       </c>
       <c r="H110" s="7" t="n">
-        <v>0.3911</v>
+        <v>0.1788</v>
       </c>
       <c r="I110" s="7" t="n">
-        <v>0.4914</v>
+        <v>0.5128</v>
       </c>
       <c r="J110" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>1.0097</v>
+        <v>1.0536</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C111" s="6" t="n">
-        <v>633</v>
+        <v>1162</v>
       </c>
       <c r="D111" s="7" t="n">
-        <v>0.211</v>
+        <v>0.3873</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>320</v>
+        <v>591</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>0.2078</v>
+        <v>0.3838</v>
       </c>
       <c r="G111" s="6" t="n">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="H111" s="7" t="n">
-        <v>0.2144</v>
+        <v>0.3911</v>
       </c>
       <c r="I111" s="7" t="n">
-        <v>0.4945</v>
+        <v>0.4914</v>
       </c>
       <c r="J111" s="7" t="n">
         <v>0.4867</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>1.016</v>
+        <v>1.0097</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C112" s="10" t="n">
-        <v>601</v>
+        <v>725</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>0.2003</v>
+        <v>0.2417</v>
       </c>
       <c r="E112" s="10" t="n">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="F112" s="11" t="n">
-        <v>0.2013</v>
+        <v>0.2481</v>
       </c>
       <c r="G112" s="10" t="n">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="H112" s="11" t="n">
-        <v>0.1993</v>
+        <v>0.2349</v>
       </c>
       <c r="I112" s="11" t="n">
-        <v>0.4842</v>
+        <v>0.4731</v>
       </c>
       <c r="J112" s="11" t="n">
         <v>0.4867</v>
       </c>
       <c r="K112" s="12" t="n">
-        <v>0.9949</v>
+        <v>0.9721</v>
       </c>
     </row>
   </sheetData>

--- a/examples/model_report/决策树组合策略挖掘.xlsx
+++ b/examples/model_report/决策树组合策略挖掘.xlsx
@@ -1122,137 +1122,137 @@
     <row r="9">
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1552</v>
+        <v>2553</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2217</v>
+        <v>0.3647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>832</v>
+        <v>1345</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2314</v>
+        <v>0.374</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>720</v>
+        <v>1208</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2115</v>
+        <v>0.3549</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4639</v>
+        <v>0.4732</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.954</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>3026</v>
+        <v>2531</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>0.4323</v>
+        <v>0.3616</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1543</v>
+        <v>1290</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.4291</v>
+        <v>0.3587</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>1483</v>
+        <v>1241</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>0.4357</v>
+        <v>0.3646</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>0.4901</v>
+        <v>0.4903</v>
       </c>
       <c r="J10" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>1.0078</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1967</v>
+        <v>966</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.281</v>
+        <v>0.138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1002</v>
+        <v>489</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2786</v>
+        <v>0.136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>965</v>
+        <v>477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2835</v>
+        <v>0.1401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4906</v>
+        <v>0.4938</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1.0089</v>
+        <v>1.0154</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>455</v>
+        <v>950</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>0.065</v>
+        <v>0.1357</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.0609</v>
+        <v>0.1313</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="H12" s="8" t="n">
-        <v>0.0693</v>
+        <v>0.1404</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>0.5187</v>
+        <v>0.5032</v>
       </c>
       <c r="J12" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>1.0666</v>
+        <v>1.0347</v>
       </c>
     </row>
     <row r="13">
@@ -1292,103 +1292,103 @@
     <row r="14">
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>2770</v>
+        <v>1234</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>0.3957</v>
+        <v>0.1763</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1431</v>
+        <v>638</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>0.3979</v>
+        <v>0.1774</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>1339</v>
+        <v>596</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>0.3934</v>
+        <v>0.1751</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>0.4834</v>
+        <v>0.483</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>0.9941</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1404</v>
+        <v>2770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2006</v>
+        <v>0.3957</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>718</v>
+        <v>1431</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1997</v>
+        <v>0.3979</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>686</v>
+        <v>1339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2015</v>
+        <v>0.3934</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4886</v>
+        <v>0.4834</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.0048</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>1375</v>
+        <v>1545</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.1964</v>
+        <v>0.2207</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.1885</v>
+        <v>0.2108</v>
       </c>
       <c r="G16" s="9" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>0.2048</v>
+        <v>0.2312</v>
       </c>
       <c r="I16" s="10" t="n">
-        <v>0.5069</v>
+        <v>0.5094</v>
       </c>
       <c r="J16" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1.0424</v>
+        <v>1.0475</v>
       </c>
     </row>
     <row r="19">
@@ -1589,137 +1589,137 @@
     <row r="26">
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>666</v>
+        <v>1068</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.222</v>
+        <v>0.356</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.213</v>
+        <v>0.3513</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2315</v>
+        <v>0.361</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5075</v>
+        <v>0.4934</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.0428</v>
+        <v>1.0139</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>1282</v>
+        <v>1063</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0.4273</v>
+        <v>0.3543</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>667</v>
+        <v>549</v>
       </c>
       <c r="F27" s="8" t="n">
-        <v>0.4331</v>
+        <v>0.3565</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>615</v>
+        <v>514</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>0.4212</v>
+        <v>0.3521</v>
       </c>
       <c r="I27" s="8" t="n">
-        <v>0.4797</v>
+        <v>0.4835</v>
       </c>
       <c r="J27" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>0.9857</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>847</v>
+        <v>445</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.2823</v>
+        <v>0.1483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.2864</v>
+        <v>0.1481</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2781</v>
+        <v>0.1486</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4793</v>
+        <v>0.4876</v>
       </c>
       <c r="J28" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K28" s="6" t="n">
-        <v>0.9849</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>205</v>
+        <v>424</v>
       </c>
       <c r="D29" s="8" t="n">
-        <v>0.0683</v>
+        <v>0.1413</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="F29" s="8" t="n">
-        <v>0.0675</v>
+        <v>0.1442</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>0.0692</v>
+        <v>0.1384</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>0.4927</v>
+        <v>0.4764</v>
       </c>
       <c r="J29" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>1.0124</v>
+        <v>0.9789</v>
       </c>
     </row>
     <row r="30">
@@ -1759,103 +1759,103 @@
     <row r="31">
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>1162</v>
+        <v>509</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.3873</v>
+        <v>0.1697</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>591</v>
+        <v>248</v>
       </c>
       <c r="F31" s="8" t="n">
-        <v>0.3838</v>
+        <v>0.161</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>571</v>
+        <v>261</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>0.3911</v>
+        <v>0.1788</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>0.4914</v>
+        <v>0.5128</v>
       </c>
       <c r="J31" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>1.0097</v>
+        <v>1.0536</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>633</v>
+        <v>1162</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.211</v>
+        <v>0.3873</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>320</v>
+        <v>591</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2078</v>
+        <v>0.3838</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2144</v>
+        <v>0.3911</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4945</v>
+        <v>0.4914</v>
       </c>
       <c r="J32" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.016</v>
+        <v>1.0097</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C33" s="9" t="n">
-        <v>601</v>
+        <v>725</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0.2003</v>
+        <v>0.2417</v>
       </c>
       <c r="E33" s="9" t="n">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>0.2013</v>
+        <v>0.2481</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>0.1993</v>
+        <v>0.2349</v>
       </c>
       <c r="I33" s="10" t="n">
-        <v>0.4842</v>
+        <v>0.4731</v>
       </c>
       <c r="J33" s="10" t="n">
         <v>0.4867</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>0.9949</v>
+        <v>0.9721</v>
       </c>
     </row>
   </sheetData>
@@ -2161,137 +2161,137 @@
     <row r="33">
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>1552</v>
+        <v>2553</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2217</v>
+        <v>0.3647</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>832</v>
+        <v>1345</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2314</v>
+        <v>0.374</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>720</v>
+        <v>1208</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2115</v>
+        <v>0.3549</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4639</v>
+        <v>0.4732</v>
       </c>
       <c r="J33" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.954</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
+          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>3026</v>
+        <v>2531</v>
       </c>
       <c r="D34" s="8" t="n">
-        <v>0.4323</v>
+        <v>0.3616</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>1543</v>
+        <v>1290</v>
       </c>
       <c r="F34" s="8" t="n">
-        <v>0.4291</v>
+        <v>0.3587</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>1483</v>
+        <v>1241</v>
       </c>
       <c r="H34" s="8" t="n">
-        <v>0.4357</v>
+        <v>0.3646</v>
       </c>
       <c r="I34" s="8" t="n">
-        <v>0.4901</v>
+        <v>0.4903</v>
       </c>
       <c r="J34" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>1.0078</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
+          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1967</v>
+        <v>966</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>0.281</v>
+        <v>0.138</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1002</v>
+        <v>489</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>0.2786</v>
+        <v>0.136</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>965</v>
+        <v>477</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2835</v>
+        <v>0.1401</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4906</v>
+        <v>0.4938</v>
       </c>
       <c r="J35" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1.0089</v>
+        <v>1.0154</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
+          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C36" s="9" t="n">
-        <v>455</v>
+        <v>950</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0.065</v>
+        <v>0.1357</v>
       </c>
       <c r="E36" s="9" t="n">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>0.0609</v>
+        <v>0.1313</v>
       </c>
       <c r="G36" s="9" t="n">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>0.0693</v>
+        <v>0.1404</v>
       </c>
       <c r="I36" s="10" t="n">
-        <v>0.5187</v>
+        <v>0.5032</v>
       </c>
       <c r="J36" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>1.0666</v>
+        <v>1.0347</v>
       </c>
     </row>
     <row r="61">
@@ -2383,103 +2383,103 @@
     <row r="63">
       <c r="B63" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C63" s="7" t="n">
-        <v>2770</v>
+        <v>1234</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>0.3957</v>
+        <v>0.1763</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>1431</v>
+        <v>638</v>
       </c>
       <c r="F63" s="8" t="n">
-        <v>0.3979</v>
+        <v>0.1774</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>1339</v>
+        <v>596</v>
       </c>
       <c r="H63" s="8" t="n">
-        <v>0.3934</v>
+        <v>0.1751</v>
       </c>
       <c r="I63" s="8" t="n">
-        <v>0.4834</v>
+        <v>0.483</v>
       </c>
       <c r="J63" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>0.9941</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>1404</v>
+        <v>2770</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>0.2006</v>
+        <v>0.3957</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>718</v>
+        <v>1431</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>0.1997</v>
+        <v>0.3979</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>686</v>
+        <v>1339</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.2015</v>
+        <v>0.3934</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.4886</v>
+        <v>0.4834</v>
       </c>
       <c r="J64" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K64" s="6" t="n">
-        <v>1.0048</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
+          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C65" s="9" t="n">
-        <v>1375</v>
+        <v>1545</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0.1964</v>
+        <v>0.2207</v>
       </c>
       <c r="E65" s="9" t="n">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0.1885</v>
+        <v>0.2108</v>
       </c>
       <c r="G65" s="9" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="H65" s="10" t="n">
-        <v>0.2048</v>
+        <v>0.2312</v>
       </c>
       <c r="I65" s="10" t="n">
-        <v>0.5069</v>
+        <v>0.5094</v>
       </c>
       <c r="J65" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K65" s="10" t="n">
-        <v>1.0424</v>
+        <v>1.0475</v>
       </c>
     </row>
   </sheetData>

--- a/examples/model_report/决策树组合策略挖掘.xlsx
+++ b/examples/model_report/决策树组合策略挖掘.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略详情" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="策略汇总" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="策略详情" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -580,13 +580,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -605,13 +605,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -630,13 +630,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1900,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2538,6 +2538,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/model_report/决策树组合策略挖掘.xlsx
+++ b/examples/model_report/决策树组合策略挖掘.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="策略汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="策略详情" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略汇总" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略详情" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -580,13 +580,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -605,13 +605,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -630,13 +630,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -986,7 +986,7 @@
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &gt; 0.999 &amp; A &lt;= 6.5 </t>
+          <t xml:space="preserve">时间 &gt; 0.999 &amp; A &lt;= 6.5 </t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
@@ -1020,7 +1020,7 @@
     <row r="6">
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &lt;= 0.999  &amp; D &lt;= 0.999 </t>
+          <t xml:space="preserve">时间 &lt;= 0.999  &amp; 时间 &lt;= 0.999 </t>
         </is>
       </c>
       <c r="C6" s="7" t="n">
@@ -1054,7 +1054,7 @@
     <row r="7">
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>D &lt;= 0.999  &amp; D &gt; 0.999</t>
+          <t>时间 &lt;= 0.999  &amp; 时间 &gt; 0.999</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -1088,7 +1088,7 @@
     <row r="8">
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>D &gt; 0.999 &amp; A &gt; 6.5</t>
+          <t>时间 &gt; 0.999 &amp; A &gt; 6.5</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1122,137 +1122,137 @@
     <row r="9">
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2553</v>
+        <v>1552</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3647</v>
+        <v>0.2217</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1345</v>
+        <v>832</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.374</v>
+        <v>0.2314</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1208</v>
+        <v>720</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3549</v>
+        <v>0.2115</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4732</v>
+        <v>0.4639</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.973</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
+          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>2531</v>
+        <v>3026</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>0.3616</v>
+        <v>0.4323</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1290</v>
+        <v>1543</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.3587</v>
+        <v>0.4291</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>1241</v>
+        <v>1483</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>0.3646</v>
+        <v>0.4357</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>0.4903</v>
+        <v>0.4901</v>
       </c>
       <c r="J10" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>1.0083</v>
+        <v>1.0078</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
+          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>966</v>
+        <v>1967</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.138</v>
+        <v>0.281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>489</v>
+        <v>1002</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.136</v>
+        <v>0.2786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>477</v>
+        <v>965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1401</v>
+        <v>0.2835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4938</v>
+        <v>0.4906</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1.0154</v>
+        <v>1.0089</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
+          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>950</v>
+        <v>455</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>0.1357</v>
+        <v>0.065</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>472</v>
+        <v>219</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.1313</v>
+        <v>0.0609</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="H12" s="8" t="n">
-        <v>0.1404</v>
+        <v>0.0693</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>0.5032</v>
+        <v>0.5187</v>
       </c>
       <c r="J12" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>1.0347</v>
+        <v>1.0666</v>
       </c>
     </row>
     <row r="13">
@@ -1292,103 +1292,103 @@
     <row r="14">
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>1234</v>
+        <v>2770</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>0.1763</v>
+        <v>0.3957</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>638</v>
+        <v>1431</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>0.1774</v>
+        <v>0.3979</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>596</v>
+        <v>1339</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>0.1751</v>
+        <v>0.3934</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>0.483</v>
+        <v>0.4834</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>0.9932</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2770</v>
+        <v>1404</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3957</v>
+        <v>0.2006</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1431</v>
+        <v>718</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3979</v>
+        <v>0.1997</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1339</v>
+        <v>686</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3934</v>
+        <v>0.2015</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4834</v>
+        <v>0.4886</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9941</v>
+        <v>1.0048</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
+          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>1545</v>
+        <v>1375</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.2207</v>
+        <v>0.1964</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>758</v>
+        <v>678</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.2108</v>
+        <v>0.1885</v>
       </c>
       <c r="G16" s="9" t="n">
-        <v>787</v>
+        <v>697</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>0.2312</v>
+        <v>0.2048</v>
       </c>
       <c r="I16" s="10" t="n">
-        <v>0.5094</v>
+        <v>0.5069</v>
       </c>
       <c r="J16" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1.0475</v>
+        <v>1.0424</v>
       </c>
     </row>
     <row r="19">
@@ -1453,7 +1453,7 @@
     <row r="22">
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &gt; 0.999 &amp; A &lt;= 6.5 </t>
+          <t xml:space="preserve">时间 &gt; 0.999 &amp; A &lt;= 6.5 </t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1487,7 +1487,7 @@
     <row r="23">
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &lt;= 0.999  &amp; D &lt;= 0.999 </t>
+          <t xml:space="preserve">时间 &lt;= 0.999  &amp; 时间 &lt;= 0.999 </t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
@@ -1521,7 +1521,7 @@
     <row r="24">
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>D &lt;= 0.999  &amp; D &gt; 0.999</t>
+          <t>时间 &lt;= 0.999  &amp; 时间 &gt; 0.999</t>
         </is>
       </c>
       <c r="C24" s="5" t="n">
@@ -1555,7 +1555,7 @@
     <row r="25">
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>D &gt; 0.999 &amp; A &gt; 6.5</t>
+          <t>时间 &gt; 0.999 &amp; A &gt; 6.5</t>
         </is>
       </c>
       <c r="C25" s="7" t="n">
@@ -1589,137 +1589,137 @@
     <row r="26">
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1068</v>
+        <v>666</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.356</v>
+        <v>0.222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>541</v>
+        <v>328</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3513</v>
+        <v>0.213</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>527</v>
+        <v>338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.361</v>
+        <v>0.2315</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4934</v>
+        <v>0.5075</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.0139</v>
+        <v>1.0428</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
+          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>1063</v>
+        <v>1282</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0.3543</v>
+        <v>0.4273</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>549</v>
+        <v>667</v>
       </c>
       <c r="F27" s="8" t="n">
-        <v>0.3565</v>
+        <v>0.4331</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>514</v>
+        <v>615</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>0.3521</v>
+        <v>0.4212</v>
       </c>
       <c r="I27" s="8" t="n">
-        <v>0.4835</v>
+        <v>0.4797</v>
       </c>
       <c r="J27" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>0.9936</v>
+        <v>0.9857</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
+          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>445</v>
+        <v>847</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.1483</v>
+        <v>0.2823</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>228</v>
+        <v>441</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.1481</v>
+        <v>0.2864</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>217</v>
+        <v>406</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1486</v>
+        <v>0.2781</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4876</v>
+        <v>0.4793</v>
       </c>
       <c r="J28" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K28" s="6" t="n">
-        <v>1.002</v>
+        <v>0.9849</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
+          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>424</v>
+        <v>205</v>
       </c>
       <c r="D29" s="8" t="n">
-        <v>0.1413</v>
+        <v>0.0683</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="F29" s="8" t="n">
-        <v>0.1442</v>
+        <v>0.0675</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>0.1384</v>
+        <v>0.0692</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>0.4764</v>
+        <v>0.4927</v>
       </c>
       <c r="J29" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>0.9789</v>
+        <v>1.0124</v>
       </c>
     </row>
     <row r="30">
@@ -1759,103 +1759,103 @@
     <row r="31">
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>509</v>
+        <v>1162</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.1697</v>
+        <v>0.3873</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>248</v>
+        <v>591</v>
       </c>
       <c r="F31" s="8" t="n">
-        <v>0.161</v>
+        <v>0.3838</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>261</v>
+        <v>571</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>0.1788</v>
+        <v>0.3911</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>0.5128</v>
+        <v>0.4914</v>
       </c>
       <c r="J31" s="8" t="n">
         <v>0.4867</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>1.0536</v>
+        <v>1.0097</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>1162</v>
+        <v>633</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3873</v>
+        <v>0.211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>591</v>
+        <v>320</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3838</v>
+        <v>0.2078</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>571</v>
+        <v>313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3911</v>
+        <v>0.2144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4914</v>
+        <v>0.4945</v>
       </c>
       <c r="J32" s="6" t="n">
         <v>0.4867</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.0097</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
+          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C33" s="9" t="n">
-        <v>725</v>
+        <v>601</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0.2417</v>
+        <v>0.2003</v>
       </c>
       <c r="E33" s="9" t="n">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>0.2481</v>
+        <v>0.2013</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>0.2349</v>
+        <v>0.1993</v>
       </c>
       <c r="I33" s="10" t="n">
-        <v>0.4731</v>
+        <v>0.4842</v>
       </c>
       <c r="J33" s="10" t="n">
         <v>0.4867</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>0.9721</v>
+        <v>0.9949</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1973,7 +1973,7 @@
     <row r="4">
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &gt; 0.999 &amp; A &lt;= 6.5 </t>
+          <t xml:space="preserve">时间 &gt; 0.999 &amp; A &lt;= 6.5 </t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -2007,7 +2007,7 @@
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">D &lt;= 0.999  &amp; D &lt;= 0.999 </t>
+          <t xml:space="preserve">时间 &lt;= 0.999  &amp; 时间 &lt;= 0.999 </t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
@@ -2041,7 +2041,7 @@
     <row r="6">
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>D &lt;= 0.999  &amp; D &gt; 0.999</t>
+          <t>时间 &lt;= 0.999  &amp; 时间 &gt; 0.999</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
@@ -2075,7 +2075,7 @@
     <row r="7">
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>D &gt; 0.999 &amp; A &gt; 6.5</t>
+          <t>时间 &gt; 0.999 &amp; A &gt; 6.5</t>
         </is>
       </c>
       <c r="C7" s="9" t="n">
@@ -2161,137 +2161,137 @@
     <row r="33">
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &lt;= 0.49  &amp; C &lt;= 0.486 </t>
+          <t xml:space="preserve">C &lt;= 0.486  &amp; B &lt;= 0.483 </t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>2553</v>
+        <v>1552</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3647</v>
+        <v>0.2217</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1345</v>
+        <v>832</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.374</v>
+        <v>0.2314</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>1208</v>
+        <v>720</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3549</v>
+        <v>0.2115</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4732</v>
+        <v>0.4639</v>
       </c>
       <c r="J33" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.973</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t>B &lt;= 0.49  &amp; C &gt; 0.486</t>
+          <t xml:space="preserve">C &gt; 0.486 &amp; B &lt;= 0.499 </t>
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>2531</v>
+        <v>3026</v>
       </c>
       <c r="D34" s="8" t="n">
-        <v>0.3616</v>
+        <v>0.4323</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>1290</v>
+        <v>1543</v>
       </c>
       <c r="F34" s="8" t="n">
-        <v>0.3587</v>
+        <v>0.4291</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>1241</v>
+        <v>1483</v>
       </c>
       <c r="H34" s="8" t="n">
-        <v>0.3646</v>
+        <v>0.4357</v>
       </c>
       <c r="I34" s="8" t="n">
-        <v>0.4903</v>
+        <v>0.4901</v>
       </c>
       <c r="J34" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>1.0083</v>
+        <v>1.0078</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B &gt; 0.49 &amp; C &lt;= 0.486 </t>
+          <t>C &lt;= 0.486  &amp; B &gt; 0.483</t>
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>966</v>
+        <v>1967</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>0.138</v>
+        <v>0.281</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>489</v>
+        <v>1002</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>0.136</v>
+        <v>0.2786</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>477</v>
+        <v>965</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1401</v>
+        <v>0.2835</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4938</v>
+        <v>0.4906</v>
       </c>
       <c r="J35" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1.0154</v>
+        <v>1.0089</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>B &gt; 0.49 &amp; C &gt; 0.486</t>
+          <t>C &gt; 0.486 &amp; B &gt; 0.499</t>
         </is>
       </c>
       <c r="C36" s="9" t="n">
-        <v>950</v>
+        <v>455</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0.1357</v>
+        <v>0.065</v>
       </c>
       <c r="E36" s="9" t="n">
-        <v>472</v>
+        <v>219</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>0.1313</v>
+        <v>0.0609</v>
       </c>
       <c r="G36" s="9" t="n">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>0.1404</v>
+        <v>0.0693</v>
       </c>
       <c r="I36" s="10" t="n">
-        <v>0.5032</v>
+        <v>0.5187</v>
       </c>
       <c r="J36" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>1.0347</v>
+        <v>1.0666</v>
       </c>
     </row>
     <row r="61">
@@ -2383,103 +2383,103 @@
     <row r="63">
       <c r="B63" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &gt; 5.5 &amp; B &lt;= 0.483 </t>
+          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
         </is>
       </c>
       <c r="C63" s="7" t="n">
-        <v>1234</v>
+        <v>2770</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>0.1763</v>
+        <v>0.3957</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>638</v>
+        <v>1431</v>
       </c>
       <c r="F63" s="8" t="n">
-        <v>0.1774</v>
+        <v>0.3979</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>596</v>
+        <v>1339</v>
       </c>
       <c r="H63" s="8" t="n">
-        <v>0.1751</v>
+        <v>0.3934</v>
       </c>
       <c r="I63" s="8" t="n">
-        <v>0.483</v>
+        <v>0.4834</v>
       </c>
       <c r="J63" s="8" t="n">
         <v>0.4863</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>0.9932</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;= 5.5  &amp; A &lt;= 3.5 </t>
+          <t xml:space="preserve">A &gt; 5.5 &amp; C &lt;= 0.486 </t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>2770</v>
+        <v>1404</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>0.3957</v>
+        <v>0.2006</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>1431</v>
+        <v>718</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>0.3979</v>
+        <v>0.1997</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1339</v>
+        <v>686</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.3934</v>
+        <v>0.2015</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.4834</v>
+        <v>0.4886</v>
       </c>
       <c r="J64" s="6" t="n">
         <v>0.4863</v>
       </c>
       <c r="K64" s="6" t="n">
-        <v>0.9941</v>
+        <v>1.0048</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>A &gt; 5.5 &amp; B &gt; 0.483</t>
+          <t>A &gt; 5.5 &amp; C &gt; 0.486</t>
         </is>
       </c>
       <c r="C65" s="9" t="n">
-        <v>1545</v>
+        <v>1375</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0.2207</v>
+        <v>0.1964</v>
       </c>
       <c r="E65" s="9" t="n">
-        <v>758</v>
+        <v>678</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0.2108</v>
+        <v>0.1885</v>
       </c>
       <c r="G65" s="9" t="n">
-        <v>787</v>
+        <v>697</v>
       </c>
       <c r="H65" s="10" t="n">
-        <v>0.2312</v>
+        <v>0.2048</v>
       </c>
       <c r="I65" s="10" t="n">
-        <v>0.5094</v>
+        <v>0.5069</v>
       </c>
       <c r="J65" s="10" t="n">
         <v>0.4863</v>
       </c>
       <c r="K65" s="10" t="n">
-        <v>1.0475</v>
+        <v>1.0424</v>
       </c>
     </row>
   </sheetData>
@@ -2538,6 +2538,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>